--- a/excel/exceptions.xlsx
+++ b/excel/exceptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E09F8-E276-485F-BAE1-3864364877E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AB05D-634B-40E2-9664-98B8C2D9DC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3225" windowWidth="7005" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,13 +393,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>

--- a/excel/exceptions.xlsx
+++ b/excel/exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AB05D-634B-40E2-9664-98B8C2D9DC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8A7A76-FB8B-46FD-BFC8-EFB48A8A46BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3225" windowWidth="7005" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>업체</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>c7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +394,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -475,6 +479,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/exceptions.xlsx
+++ b/excel/exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIMPOFD9\Documents\GitHub\fms-auto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8A7A76-FB8B-46FD-BFC8-EFB48A8A46BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA4428-68CA-483B-ADFA-2CA5C67E5EE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1890" yWindow="5385" windowWidth="7500" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>업체</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>c31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c33</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,9 +491,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>